--- a/EMA.xlsx
+++ b/EMA.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\recaf\Documents\GitHub\TinyTrackGPS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2BB7B86B-3340-4AA3-9028-EE3C86751602}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B594779-3BB6-4E21-9C13-CBCEC127FD67}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{A56611A0-A4D3-43ED-8FE3-90524AD1B53D}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{A56611A0-A4D3-43ED-8FE3-90524AD1B53D}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -107,15 +107,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:colOff>246529</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>126999</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>565336</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>57967</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>49865</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>184966</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -138,7 +138,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4572000" y="373529"/>
+          <a:off x="4818529" y="126999"/>
           <a:ext cx="3613336" cy="1365320"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -146,6 +146,279 @@
         </a:prstGeom>
       </xdr:spPr>
     </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>103343</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>21166</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>237815</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>54589</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="CuadroTexto 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E4A156CD-12B2-4C8F-A55A-6CBD52862A42}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4675343" y="1488722"/>
+          <a:ext cx="9278472" cy="2785089"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="es-ES" sz="1100" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="Cascadia Mono" panose="020B0609020000020004" pitchFamily="49" charset="0"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="Cascadia Mono" panose="020B0609020000020004" pitchFamily="49" charset="0"/>
+            </a:rPr>
+            <a:t>-------------------Ejemplos de código para VCC -------------------------------------------</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="es-ES" sz="1100" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="Cascadia Mono" panose="020B0609020000020004" pitchFamily="49" charset="0"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="Cascadia Mono" panose="020B0609020000020004" pitchFamily="49" charset="0"/>
+            </a:rPr>
+            <a:t>float charge_percent = (0.80 * (vcc.Read_Perc(BAT_MIN, BAT_MAX) * 25.0 / 100.0)) + (0.20 * (float)charge);</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="es-ES" sz="1100" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="Cascadia Mono" panose="020B0609020000020004" pitchFamily="49" charset="0"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="Cascadia Mono" panose="020B0609020000020004" pitchFamily="49" charset="0"/>
+            </a:rPr>
+            <a:t>float charge_percent = 2e-1 * ((vcc.Read_Perc(BAT_MIN, BAT_MAX)) + (float)charge); // 2e-1 = 0.8 * 25 / 100</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="es-ES" sz="1100" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="Cascadia Mono" panose="020B0609020000020004" pitchFamily="49" charset="0"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="Cascadia Mono" panose="020B0609020000020004" pitchFamily="49" charset="0"/>
+            </a:rPr>
+            <a:t>charge = (int)(charge_percent);</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="es-ES" sz="1100" b="0">
+            <a:solidFill>
+              <a:schemeClr val="dk1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="Cascadia Mono" panose="020B0609020000020004" pitchFamily="49" charset="0"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="Cascadia Mono" panose="020B0609020000020004" pitchFamily="49" charset="0"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="es-ES" sz="1100" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="Cascadia Mono" panose="020B0609020000020004" pitchFamily="49" charset="0"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="Cascadia Mono" panose="020B0609020000020004" pitchFamily="49" charset="0"/>
+            </a:rPr>
+            <a:t>charge = (int)(vcc.Read_Perc(BAT_MIN, BAT_MAX) * 25.0 / 100.0);</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="es-ES" sz="1100" b="0">
+            <a:solidFill>
+              <a:schemeClr val="dk1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="Cascadia Mono" panose="020B0609020000020004" pitchFamily="49" charset="0"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="Cascadia Mono" panose="020B0609020000020004" pitchFamily="49" charset="0"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="es-ES" sz="1100" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="Cascadia Mono" panose="020B0609020000020004" pitchFamily="49" charset="0"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="Cascadia Mono" panose="020B0609020000020004" pitchFamily="49" charset="0"/>
+            </a:rPr>
+            <a:t>charge = (int)(2e-1 * ((vcc.Read_Perc(BAT_MIN, BAT_MAX)) + (float)charge));</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="es-ES" sz="1100" b="0">
+            <a:solidFill>
+              <a:schemeClr val="dk1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="Cascadia Mono" panose="020B0609020000020004" pitchFamily="49" charset="0"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="Cascadia Mono" panose="020B0609020000020004" pitchFamily="49" charset="0"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="es-ES" sz="1100" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="Cascadia Mono" panose="020B0609020000020004" pitchFamily="49" charset="0"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="Cascadia Mono" panose="020B0609020000020004" pitchFamily="49" charset="0"/>
+            </a:rPr>
+            <a:t>charge = (int)(2e-1 * (((vcc.Read_Volts()-BAT_MIN) * ALFA_BAT) + (float)charge));</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="es-ES" sz="1100" b="0">
+            <a:solidFill>
+              <a:schemeClr val="dk1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="Cascadia Mono" panose="020B0609020000020004" pitchFamily="49" charset="0"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="Cascadia Mono" panose="020B0609020000020004" pitchFamily="49" charset="0"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="es-ES" sz="1100" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="Cascadia Mono" panose="020B0609020000020004" pitchFamily="49" charset="0"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="Cascadia Mono" panose="020B0609020000020004" pitchFamily="49" charset="0"/>
+            </a:rPr>
+            <a:t>charge = (int)(((vcc.Read_Volts()-BAT_MIN) * BETA_BAT));</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="es-ES" sz="1100" b="0">
+            <a:solidFill>
+              <a:schemeClr val="dk1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="Cascadia Mono" panose="020B0609020000020004" pitchFamily="49" charset="0"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="Cascadia Mono" panose="020B0609020000020004" pitchFamily="49" charset="0"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="es-ES" sz="1100" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="Cascadia Mono" panose="020B0609020000020004" pitchFamily="49" charset="0"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="Cascadia Mono" panose="020B0609020000020004" pitchFamily="49" charset="0"/>
+            </a:rPr>
+            <a:t>float f_charge = (vcc.Read_Volts()-BAT_MIN) * BETA_BAT;</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="es-ES" sz="1100" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="Cascadia Mono" panose="020B0609020000020004" pitchFamily="49" charset="0"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="Cascadia Mono" panose="020B0609020000020004" pitchFamily="49" charset="0"/>
+            </a:rPr>
+            <a:t>charge = (unsigned int)f_charge; </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="es-ES" sz="1100" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="Cascadia Mono" panose="020B0609020000020004" pitchFamily="49" charset="0"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="Cascadia Mono" panose="020B0609020000020004" pitchFamily="49" charset="0"/>
+            </a:rPr>
+            <a:t>charge = constrain(charge, 0, 26);</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -448,15 +721,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5142EC53-506E-46F4-A3BD-C98BEE511EF4}">
-  <dimension ref="A3:E25"/>
+  <dimension ref="A3:F25"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="N7" sqref="N7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -470,7 +743,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>4.25</v>
       </c>
@@ -490,8 +763,12 @@
         <f>(A4-3.2)*23.8095238</f>
         <v>24.999999989999996</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F4" s="1">
+        <f>(A4-3.25)*25</f>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>4.2</v>
       </c>
@@ -511,13 +788,17 @@
         <f t="shared" ref="E5:E25" si="2">(A5-3.2)*23.8095238</f>
         <v>23.809523800000001</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F5" s="1">
+        <f t="shared" ref="F5:F25" si="3">(A5-3.25)*25</f>
+        <v>23.750000000000004</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>4.1500000000000004</v>
       </c>
       <c r="B6" s="1">
-        <f t="shared" ref="B6:B25" si="3">0.2*((A6-3.2)*95.238095238+B5)</f>
+        <f t="shared" ref="B6:B25" si="4">0.2*((A6-3.2)*95.238095238+B5)</f>
         <v>22.904761904739203</v>
       </c>
       <c r="C6" s="2">
@@ -532,13 +813,17 @@
         <f t="shared" si="2"/>
         <v>22.619047610000006</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F6" s="1">
+        <f t="shared" si="3"/>
+        <v>22.500000000000007</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>4.0999999999999996</v>
       </c>
       <c r="B7" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>21.723809523787832</v>
       </c>
       <c r="C7" s="2">
@@ -553,13 +838,17 @@
         <f t="shared" si="2"/>
         <v>21.428571419999987</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F7" s="1">
+        <f t="shared" si="3"/>
+        <v>21.249999999999993</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>4.05</v>
       </c>
       <c r="B8" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>20.535238095217561</v>
       </c>
       <c r="C8" s="2">
@@ -574,13 +863,17 @@
         <f t="shared" si="2"/>
         <v>20.238095229999992</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F8" s="1">
+        <f t="shared" si="3"/>
+        <v>19.999999999999996</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>4</v>
       </c>
       <c r="B9" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>19.345142857123509</v>
       </c>
       <c r="C9" s="2">
@@ -595,13 +888,17 @@
         <f t="shared" si="2"/>
         <v>19.047619039999997</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F9" s="1">
+        <f t="shared" si="3"/>
+        <v>18.75</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>3.95</v>
       </c>
       <c r="B10" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>18.154742857124699</v>
       </c>
       <c r="C10" s="2">
@@ -616,13 +913,17 @@
         <f t="shared" si="2"/>
         <v>17.857142850000002</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F10" s="1">
+        <f t="shared" si="3"/>
+        <v>17.500000000000004</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>3.9</v>
       </c>
       <c r="B11" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>16.964281904744936</v>
       </c>
       <c r="C11" s="2">
@@ -637,13 +938,17 @@
         <f t="shared" si="2"/>
         <v>16.666666659999994</v>
       </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F11" s="1">
+        <f t="shared" si="3"/>
+        <v>16.249999999999996</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>3.85</v>
       </c>
       <c r="B12" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>15.773808761888985</v>
       </c>
       <c r="C12" s="2">
@@ -658,13 +963,17 @@
         <f t="shared" si="2"/>
         <v>15.476190469999999</v>
       </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F12" s="1">
+        <f t="shared" si="3"/>
+        <v>15.000000000000002</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A13">
         <v>3.8</v>
       </c>
       <c r="B13" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>14.583333180937792</v>
       </c>
       <c r="C13" s="2">
@@ -679,13 +988,17 @@
         <f t="shared" si="2"/>
         <v>14.285714279999992</v>
       </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F13" s="1">
+        <f t="shared" si="3"/>
+        <v>13.749999999999996</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A14">
         <v>3.75</v>
       </c>
       <c r="B14" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>13.392857112367558</v>
       </c>
       <c r="C14" s="2">
@@ -700,13 +1013,17 @@
         <f t="shared" si="2"/>
         <v>13.095238089999997</v>
       </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F14" s="1">
+        <f t="shared" si="3"/>
+        <v>12.5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A15">
         <v>3.7</v>
       </c>
       <c r="B15" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>12.202380946273513</v>
       </c>
       <c r="C15" s="2">
@@ -721,13 +1038,17 @@
         <f t="shared" si="2"/>
         <v>11.9047619</v>
       </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F15" s="1">
+        <f t="shared" si="3"/>
+        <v>11.250000000000004</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A16">
         <v>3.65</v>
       </c>
       <c r="B16" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>11.011904760674698</v>
       </c>
       <c r="C16" s="2">
@@ -742,13 +1063,17 @@
         <f t="shared" si="2"/>
         <v>10.714285709999993</v>
       </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F16" s="1">
+        <f t="shared" si="3"/>
+        <v>9.9999999999999982</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A17">
         <v>3.6</v>
       </c>
       <c r="B17" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>9.8214285711749376</v>
       </c>
       <c r="C17" s="2">
@@ -763,13 +1088,17 @@
         <f t="shared" si="2"/>
         <v>9.5238095199999986</v>
       </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F17" s="1">
+        <f t="shared" si="3"/>
+        <v>8.7500000000000018</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A18">
         <v>3.55</v>
       </c>
       <c r="B18" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>8.630952380894982</v>
       </c>
       <c r="C18" s="2">
@@ -784,13 +1113,17 @@
         <f t="shared" si="2"/>
         <v>8.3333333299999914</v>
       </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F18" s="1">
+        <f t="shared" si="3"/>
+        <v>7.4999999999999956</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A19">
         <v>3.5</v>
       </c>
       <c r="B19" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>7.4404761904589938</v>
       </c>
       <c r="C19" s="2">
@@ -805,13 +1138,17 @@
         <f t="shared" si="2"/>
         <v>7.1428571399999958</v>
       </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F19" s="1">
+        <f t="shared" si="3"/>
+        <v>6.25</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A20">
         <v>3.45</v>
       </c>
       <c r="B20" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>6.2499999999917994</v>
       </c>
       <c r="C20" s="2">
@@ -826,13 +1163,17 @@
         <f t="shared" si="2"/>
         <v>5.9523809500000002</v>
       </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F20" s="1">
+        <f t="shared" si="3"/>
+        <v>5.0000000000000044</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A21">
         <v>3.4</v>
       </c>
       <c r="B21" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>5.059523809518355</v>
       </c>
       <c r="C21" s="2">
@@ -847,13 +1188,17 @@
         <f t="shared" si="2"/>
         <v>4.761904759999994</v>
       </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F21" s="1">
+        <f t="shared" si="3"/>
+        <v>3.7499999999999978</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A22">
         <v>3.35</v>
       </c>
       <c r="B22" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>3.8690476190436698</v>
       </c>
       <c r="C22" s="2">
@@ -868,13 +1213,17 @@
         <f t="shared" si="2"/>
         <v>3.5714285699999979</v>
       </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F22" s="1">
+        <f t="shared" si="3"/>
+        <v>2.5000000000000022</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A23">
         <v>3.3</v>
       </c>
       <c r="B23" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>2.6785714285687274</v>
       </c>
       <c r="C23" s="2">
@@ -889,13 +1238,17 @@
         <f t="shared" si="2"/>
         <v>2.3809523799999917</v>
       </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F23" s="1">
+        <f t="shared" si="3"/>
+        <v>1.2499999999999956</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A24">
         <v>3.25</v>
       </c>
       <c r="B24" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1.4880952380937424</v>
       </c>
       <c r="C24" s="2">
@@ -910,13 +1263,17 @@
         <f t="shared" si="2"/>
         <v>1.1904761899999958</v>
       </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F24" s="1">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A25">
         <v>3.2</v>
       </c>
       <c r="B25" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.29761904761874852</v>
       </c>
       <c r="C25" s="2">
@@ -930,6 +1287,10 @@
       <c r="E25" s="1">
         <f t="shared" si="2"/>
         <v>0</v>
+      </c>
+      <c r="F25" s="1">
+        <f t="shared" si="3"/>
+        <v>-1.2499999999999956</v>
       </c>
     </row>
   </sheetData>
